--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project RF X\Parser_Public_Releases\Parser_1.0.2\database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72089CEE-2606-4283-A463-3253155481A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C2220-EBAA-4564-8C45-B6CE2CFFD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1105">
   <si>
     <t>char[32]</t>
   </si>
@@ -3330,6 +3330,18 @@
   </si>
   <si>
     <t>Dry Moor</t>
+  </si>
+  <si>
+    <t>sd22036</t>
+  </si>
+  <si>
+    <t>bd22036</t>
+  </si>
+  <si>
+    <t>sd22037</t>
+  </si>
+  <si>
+    <t>bd22037</t>
   </si>
 </sst>
 </file>
@@ -32556,10 +32568,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="K201" activeCellId="1" sqref="C199:E199 K201"/>
+      <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37541,7 +37553,7 @@
         <v>-7022</v>
       </c>
       <c r="D192" s="1">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="E192" s="1">
         <v>5919</v>
@@ -37567,7 +37579,7 @@
         <v>-7022</v>
       </c>
       <c r="D193" s="1">
-        <v>622</v>
+        <v>822</v>
       </c>
       <c r="E193" s="1">
         <v>5919</v>
@@ -37891,6 +37903,110 @@
         <v>20</v>
       </c>
       <c r="H205" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B206" s="1">
+        <v>144</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-7110</v>
+      </c>
+      <c r="D206" s="1">
+        <v>622</v>
+      </c>
+      <c r="E206" s="1">
+        <v>5870</v>
+      </c>
+      <c r="F206" s="1">
+        <v>20</v>
+      </c>
+      <c r="G206" s="1">
+        <v>20</v>
+      </c>
+      <c r="H206" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B207" s="1">
+        <v>140</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-7110</v>
+      </c>
+      <c r="D207" s="1">
+        <v>622</v>
+      </c>
+      <c r="E207" s="1">
+        <v>5870</v>
+      </c>
+      <c r="F207" s="1">
+        <v>20</v>
+      </c>
+      <c r="G207" s="1">
+        <v>20</v>
+      </c>
+      <c r="H207" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B208" s="1">
+        <v>144</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-6127</v>
+      </c>
+      <c r="D208" s="1">
+        <v>550</v>
+      </c>
+      <c r="E208" s="1">
+        <v>5880</v>
+      </c>
+      <c r="F208" s="1">
+        <v>20</v>
+      </c>
+      <c r="G208" s="1">
+        <v>20</v>
+      </c>
+      <c r="H208" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B209" s="1">
+        <v>140</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-6057</v>
+      </c>
+      <c r="D209" s="1">
+        <v>550</v>
+      </c>
+      <c r="E209" s="1">
+        <v>5880</v>
+      </c>
+      <c r="F209" s="1">
+        <v>20</v>
+      </c>
+      <c r="G209" s="1">
+        <v>20</v>
+      </c>
+      <c r="H209" s="1">
         <v>20</v>
       </c>
     </row>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CF655-424F-4492-94D6-A1818F913FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21C9E4-027A-44CB-9882-A467664AA3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32570,8 +32570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32717,7 +32717,7 @@
         <v>-5323</v>
       </c>
       <c r="D6" s="1">
-        <v>575</v>
+        <v>200575</v>
       </c>
       <c r="E6" s="1">
         <v>6039</v>
@@ -33133,7 +33133,7 @@
         <v>-5338</v>
       </c>
       <c r="D22" s="1">
-        <v>574</v>
+        <v>200574</v>
       </c>
       <c r="E22" s="1">
         <v>6113</v>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21C9E4-027A-44CB-9882-A467664AA3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBFFF77-16CB-405B-80EF-D4A6089CE3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32570,8 +32570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32665,7 +32665,7 @@
         <v>-5191</v>
       </c>
       <c r="D4" s="1">
-        <v>574</v>
+        <v>200574</v>
       </c>
       <c r="E4" s="1">
         <v>6067</v>
@@ -33081,7 +33081,7 @@
         <v>-5210</v>
       </c>
       <c r="D20" s="1">
-        <v>574</v>
+        <v>200574</v>
       </c>
       <c r="E20" s="1">
         <v>6140</v>
@@ -34953,7 +34953,7 @@
         <v>-5666</v>
       </c>
       <c r="D92" s="1">
-        <v>585</v>
+        <v>200585</v>
       </c>
       <c r="E92" s="1">
         <v>6293</v>
@@ -35447,7 +35447,7 @@
         <v>-6742</v>
       </c>
       <c r="D111" s="1">
-        <v>655</v>
+        <v>200655</v>
       </c>
       <c r="E111" s="1">
         <v>5719</v>
@@ -35473,7 +35473,7 @@
         <v>-6847</v>
       </c>
       <c r="D112" s="1">
-        <v>656</v>
+        <v>200656</v>
       </c>
       <c r="E112" s="1">
         <v>5732</v>
@@ -35551,7 +35551,7 @@
         <v>-7588</v>
       </c>
       <c r="D115" s="1">
-        <v>636</v>
+        <v>200636</v>
       </c>
       <c r="E115" s="1">
         <v>6170</v>
@@ -35577,7 +35577,7 @@
         <v>-7494</v>
       </c>
       <c r="D116" s="1">
-        <v>626</v>
+        <v>200626</v>
       </c>
       <c r="E116" s="1">
         <v>6155</v>
@@ -35603,7 +35603,7 @@
         <v>-7545</v>
       </c>
       <c r="D117" s="1">
-        <v>634</v>
+        <v>200634</v>
       </c>
       <c r="E117" s="1">
         <v>6232</v>
@@ -35629,7 +35629,7 @@
         <v>-7480</v>
       </c>
       <c r="D118" s="1">
-        <v>625</v>
+        <v>200625</v>
       </c>
       <c r="E118" s="1">
         <v>6144</v>
@@ -36461,7 +36461,7 @@
         <v>-6043</v>
       </c>
       <c r="D150" s="1">
-        <v>550</v>
+        <v>200550</v>
       </c>
       <c r="E150" s="1">
         <v>5297</v>
@@ -36487,7 +36487,7 @@
         <v>-6603</v>
       </c>
       <c r="D151" s="1">
-        <v>621</v>
+        <v>200621</v>
       </c>
       <c r="E151" s="1">
         <v>6209</v>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBFFF77-16CB-405B-80EF-D4A6089CE3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D1DF0-9FF8-4475-8512-4756D4C0BAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32570,8 +32570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D132" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\gu_in\Map.edf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D1DF0-9FF8-4475-8512-4756D4C0BAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1545A2-0D1A-4748-BE30-B960F07DE833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32571,7 +32571,7 @@
   <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D132" sqref="D1:D1048576"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36461,7 +36461,7 @@
         <v>-6043</v>
       </c>
       <c r="D150" s="1">
-        <v>200550</v>
+        <v>550</v>
       </c>
       <c r="E150" s="1">
         <v>5297</v>
@@ -36487,7 +36487,7 @@
         <v>-6603</v>
       </c>
       <c r="D151" s="1">
-        <v>200621</v>
+        <v>621</v>
       </c>
       <c r="E151" s="1">
         <v>6209</v>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1545A2-0D1A-4748-BE30-B960F07DE833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E930C9D-5097-4C5E-99D1-29F28F3ECF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="0" windowWidth="18480" windowHeight="11205" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1107">
   <si>
     <t>char[32]</t>
   </si>
@@ -3342,6 +3342,12 @@
   </si>
   <si>
     <t>bd22037</t>
+  </si>
+  <si>
+    <t>sd131B3</t>
+  </si>
+  <si>
+    <t>bd131B3</t>
   </si>
 </sst>
 </file>
@@ -32568,10 +32574,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38007,6 +38013,58 @@
         <v>20</v>
       </c>
       <c r="H209" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B210" s="1">
+        <v>144</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-6074</v>
+      </c>
+      <c r="D210" s="1">
+        <v>550</v>
+      </c>
+      <c r="E210" s="1">
+        <v>5887</v>
+      </c>
+      <c r="F210" s="1">
+        <v>20</v>
+      </c>
+      <c r="G210" s="1">
+        <v>20</v>
+      </c>
+      <c r="H210" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B211" s="1">
+        <v>140</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-6074</v>
+      </c>
+      <c r="D211" s="1">
+        <v>550</v>
+      </c>
+      <c r="E211" s="1">
+        <v>5887</v>
+      </c>
+      <c r="F211" s="1">
+        <v>20</v>
+      </c>
+      <c r="G211" s="1">
+        <v>20</v>
+      </c>
+      <c r="H211" s="1">
         <v>20</v>
       </c>
     </row>

--- a/gu_in/Map.edf/neutralB.xlsx
+++ b/gu_in/Map.edf/neutralB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E930C9D-5097-4C5E-99D1-29F28F3ECF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C5CE6-BA92-4BEF-88CC-77A5D8EAA752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="0" windowWidth="18480" windowHeight="11205" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1350" windowWidth="18480" windowHeight="11205" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32577,7 +32577,7 @@
   <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+      <selection activeCell="C210" sqref="C210:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38024,13 +38024,13 @@
         <v>144</v>
       </c>
       <c r="C210" s="1">
-        <v>-6074</v>
+        <v>-5966</v>
       </c>
       <c r="D210" s="1">
         <v>550</v>
       </c>
       <c r="E210" s="1">
-        <v>5887</v>
+        <v>5899</v>
       </c>
       <c r="F210" s="1">
         <v>20</v>
@@ -38050,13 +38050,13 @@
         <v>140</v>
       </c>
       <c r="C211" s="1">
-        <v>-6074</v>
+        <v>-5966</v>
       </c>
       <c r="D211" s="1">
         <v>550</v>
       </c>
       <c r="E211" s="1">
-        <v>5887</v>
+        <v>5899</v>
       </c>
       <c r="F211" s="1">
         <v>20</v>
